--- a/Test Cases/TC 7.1.xlsx
+++ b/Test Cases/TC 7.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s560174\Desktop\New Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S571635\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10F799-5813-496B-BAB5-5CBCA3163F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A18741C-9538-4BB9-8B8D-6094DEAB93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC2DCAC5-5A8F-4D80-B8CD-A8C809370B87}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC2DCAC5-5A8F-4D80-B8CD-A8C809370B87}"/>
   </bookViews>
   <sheets>
     <sheet name="TC 7.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -119,18 +119,6 @@
     <t>Send a GET request with an invalid CourseID</t>
   </si>
   <si>
-    <t>QuizID=12345</t>
-  </si>
-  <si>
-    <t>Quiz should be available in database</t>
-  </si>
-  <si>
-    <t>Ensure that users can fetch quizzes for a specific course and retrieve questions for a given quiz ID.</t>
-  </si>
-  <si>
-    <t>Validate the retrieval of quizzes and their associated questions based on course and quiz IDs and student submits the quiz.</t>
-  </si>
-  <si>
     <t>Not</t>
   </si>
   <si>
@@ -164,10 +152,19 @@
     <t>API returns 404 "Assignment not found"</t>
   </si>
   <si>
-    <t>Simulate a server error during file upload</t>
-  </si>
-  <si>
-    <t>API returns 500 "Error submitting assignment"</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Validate the retrieval of assignments and their associated questions based on course and assignment IDs and student submits the assignment.</t>
+  </si>
+  <si>
+    <t>Assignent should be available in database</t>
+  </si>
+  <si>
+    <t>AssignmentID=12345</t>
+  </si>
+  <si>
+    <t>Ensure that users can fetch assignments for a specific course and retrieve questions for a given assignments ID.</t>
   </si>
 </sst>
 </file>
@@ -364,14 +361,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -386,9 +410,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -398,35 +419,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,58 +763,58 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1">
         <v>7</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -830,11 +827,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -845,7 +842,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -858,32 +855,32 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="35">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <v>45707</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="27"/>
+      <c r="J6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -896,76 +893,76 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="39"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
@@ -976,23 +973,23 @@
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1005,7 +1002,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1018,7 +1015,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1031,7 +1028,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1044,12 +1041,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1061,68 +1058,68 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="19"/>
+      <c r="B23" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="17" t="s">
         <v>22</v>
       </c>
@@ -1134,18 +1131,18 @@
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>2</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="17" t="s">
         <v>22</v>
       </c>
@@ -1157,41 +1154,41 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="19"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="17" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>4</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="19"/>
+      <c r="B26" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="22"/>
       <c r="F26" s="17" t="s">
         <v>22</v>
       </c>
@@ -1203,18 +1200,18 @@
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>5</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="19"/>
+      <c r="B27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="17" t="s">
         <v>22</v>
       </c>
@@ -1226,18 +1223,18 @@
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>6</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="19"/>
+      <c r="B28" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="17" t="s">
         <v>22</v>
       </c>
@@ -1249,35 +1246,24 @@
       <c r="J28" s="12"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>7</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17" t="s">
-        <v>22</v>
-      </c>
+    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="17"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="17"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
@@ -1285,12 +1271,12 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="17"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
@@ -1298,12 +1284,12 @@
       <c r="J31" s="12"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="17"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
@@ -1313,6 +1299,38 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1327,38 +1345,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
